--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-03-extract-and-count-unique-entries.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-03-extract-and-count-unique-entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A1C58F1D-7E29-45FC-B9BE-879148A54D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA2DEF79-7EA3-49FD-936F-9A4EED479CEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA1EEC-A618-4F2D-9F95-EB68E0749D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIQUE and COUNT" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>UK</t>
   </si>
@@ -70,13 +92,31 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Plain Text(without formula)</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>count + unique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +134,14 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -125,15 +173,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,6 +218,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16D04D9F-663F-4E79-90A5-E469DC65922A}" name="Table1" displayName="Table1" ref="A2:A23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:A23" xr:uid="{16D04D9F-663F-4E79-90A5-E469DC65922A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5BC4B7A8-5C47-40C9-8D7F-B80405E182D8}" name="Country"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -413,7 +497,8 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.296875" customWidth="1"/>
     <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
@@ -421,9 +506,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -432,72 +520,155 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:C15">_xlfn.UNIQUE(Table1[Country],FALSE)</f>
+        <v>UK</v>
+      </c>
+      <c r="E3">
+        <f>COUNTA(_xlfn.UNIQUE(Table1[Country]))</f>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="str">
+        <v>USA</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="str">
+        <v>France</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="C7" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="str">
+        <v>India</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
+      <c r="C12" t="str">
+        <v>Taiwan</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
+      <c r="C13" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
+      <c r="C14" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="C15" t="str">
+        <v>Thailand</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -519,8 +690,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>